--- a/output/predicted_trajectoriesY.xlsx
+++ b/output/predicted_trajectoriesY.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.33676917135659</v>
+        <v>-8.749027035024054e-08</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>23.33677026368893</v>
+        <v>-5.629767683796403e-08</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>-425.9054029611958</v>
+        <v>-8.322058358150745e-08</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>-514.8296982562358</v>
+        <v>0.2370952607233896</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>-514.8296982644797</v>
+        <v>-8.380401102396733e-08</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>-698.6358533517315</v>
+        <v>-9.184626952886123e-08</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>-699.0104052011903</v>
+        <v>-1.116335100021377e-07</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>-741.8967532169665</v>
+        <v>-9.562249426979451e-08</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>-784.7831012182196</v>
+        <v>-6.779877257632571e-08</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>-816.5269433145916</v>
+        <v>193.8978870539981</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>-845.1171699095311</v>
+        <v>-8.997534466468522e-08</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>-876.8610120154625</v>
+        <v>-9.237501327312164e-08</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>-899.1480404132528</v>
+        <v>210.203498008616</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>-899.1480404107367</v>
+        <v>-8.774419646991013e-08</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>-948.3375867592747</v>
+        <v>-8.581867987234468e-08</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-948.3375867587491</v>
+        <v>-8.567352157904525e-08</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>-1008.671655453934</v>
+        <v>-8.418472809470153e-08</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>-1008.670989477735</v>
+        <v>-8.389669355163533e-08</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>-1008.670989483575</v>
+        <v>-8.389667934078061e-08</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>-1008.670989483329</v>
+        <v>-414.6210828843942</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-1059.547807438467</v>
+        <v>-8.203294691187802e-08</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>-1059.547807439086</v>
+        <v>-8.095615281209005e-08</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>-1059.547807441235</v>
+        <v>-7.684110158502897e-08</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-1059.547807440227</v>
+        <v>-7.549891741820107e-08</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886027330097e-08</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>-1059.547807440043</v>
+        <v>-7.241886649054991e-08</v>
       </c>
     </row>
   </sheetData>

--- a/output/predicted_trajectoriesY.xlsx
+++ b/output/predicted_trajectoriesY.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.749027035024054e-08</v>
+        <v>41.74067183465279</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.629767683796403e-08</v>
+        <v>41.74067389101362</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.322058358150745e-08</v>
+        <v>-761.5368658848429</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2370952607233896</v>
+        <v>-920.4217021917362</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>-8.380401102396733e-08</v>
+        <v>-920.4217021955468</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>-9.184626952886123e-08</v>
+        <v>-1249.655897667152</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.116335100021377e-07</v>
+        <v>-1281.58302684717</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.562249426979451e-08</v>
+        <v>-1320.884070184373</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.779877257632571e-08</v>
+        <v>-1397.511073859473</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>193.8978870539981</v>
+        <v>-1454.229251501069</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>-8.997534466468522e-08</v>
+        <v>-1503.744031488908</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>-9.237501327312164e-08</v>
+        <v>-1560.462209061932</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>210.203498008616</v>
+        <v>-1601.209974221164</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>-8.774419646991013e-08</v>
+        <v>-1601.209974223164</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>-8.581867987234468e-08</v>
+        <v>-1689.099191146345</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.567352157904525e-08</v>
+        <v>-1689.096654099501</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.418472809470153e-08</v>
+        <v>-1800.509336381934</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>-8.389669355163533e-08</v>
+        <v>-1796.898307618202</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>-8.389667934078061e-08</v>
+        <v>-1796.859243203621</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>-414.6210828843942</v>
+        <v>-1796.898307023876</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-8.203294691187802e-08</v>
+        <v>-1926.252130986813</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>-8.095615281209005e-08</v>
+        <v>-1926.253501315685</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>-7.684110158502897e-08</v>
+        <v>-1926.408474484525</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-7.549891741820107e-08</v>
+        <v>-1926.40852186969</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>-7.241886027330097e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>-7.241886649054991e-08</v>
+        <v>-1926.408521870031</v>
       </c>
     </row>
   </sheetData>
